--- a/07_Test/VerlgeicheJARTAvsArta.Standard/Normalverteilung/Normalverteilung.xlsx
+++ b/07_Test/VerlgeicheJARTAvsArta.Standard/Normalverteilung/Normalverteilung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\Semesterarbeit-HS-2017-2018\07_Test\VerlgeicheJARTAvsArta.Standard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\Semesterarbeit-HS-2017-2018\07_Test\VerlgeicheJARTAvsArta.Standard\Normalverteilung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -226,34 +226,34 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.77272567616496202</c:v>
+                  <c:v>-0.79879739500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.794123715685915</c:v>
+                  <c:v>0.82050574300000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.68809183676464403</c:v>
+                  <c:v>-0.72478170200000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65630003664377401</c:v>
+                  <c:v>0.69973032800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.59252815220899402</c:v>
+                  <c:v>-0.64049904499999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55139255627537798</c:v>
+                  <c:v>0.60583042899999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.49908151616957402</c:v>
+                  <c:v>-0.55684412800000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46092449091568799</c:v>
+                  <c:v>0.52421377700000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.41832171430070703</c:v>
+                  <c:v>-0.48741896299999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38549815368051998</c:v>
+                  <c:v>0.45369226499999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,34 +301,34 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.39910108822856399</c:v>
+                  <c:v>-0.40025780500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49967366703670901</c:v>
+                  <c:v>0.49870862100000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.27676867414509199</c:v>
+                  <c:v>-0.28262843900000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27362594142479701</c:v>
+                  <c:v>0.27113624600000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.17823015074023599</c:v>
+                  <c:v>-0.175862514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15986760414596199</c:v>
+                  <c:v>0.15786850699999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.10381158163785401</c:v>
+                  <c:v>-0.10079917400000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7651036427308399E-2</c:v>
+                  <c:v>8.1470363000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.3223280356745704E-2</c:v>
+                  <c:v>-5.5429320999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3287197111629103E-2</c:v>
+                  <c:v>5.1220163999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,34 +646,34 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.77272567616496202</c:v>
+                  <c:v>-0.79879739500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.197018745081317</c:v>
+                  <c:v>0.18242846500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.09308338880117E-2</c:v>
+                  <c:v>7.8988272999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2123013928178699E-2</c:v>
+                  <c:v>3.5587624999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1250529544135E-2</c:v>
+                  <c:v>1.4884757E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2493816020453602E-3</c:v>
+                  <c:v>6.7656799999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6033244685496104E-3</c:v>
+                  <c:v>7.9763609999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9547097025645203E-3</c:v>
+                  <c:v>6.4494460000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4058572212802901E-3</c:v>
+                  <c:v>9.81813E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8172214526876798E-3</c:v>
+                  <c:v>-2.9100350000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,34 +721,34 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.39910108822856399</c:v>
+                  <c:v>-0.40025780500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34039198841148499</c:v>
+                  <c:v>0.33850230999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6169256954617603E-2</c:v>
+                  <c:v>5.9262268E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.21417789803505E-2</c:v>
+                  <c:v>1.4641364E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0887008353967899E-3</c:v>
+                  <c:v>5.2577819999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.72810136688346E-3</c:v>
+                  <c:v>8.2188769999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.09412342510404E-2</c:v>
+                  <c:v>1.2081491999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>3.8876787037997403E-4</c:v>
+                  <c:v>-4.1263589999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.6044999427776398E-2</c:v>
+                  <c:v>-2.5622660000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.7753769944712402E-3</c:v>
+                  <c:v>9.3679969999999994E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,304 +1063,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>-1.5963383080587601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>1.4484814511758299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>-3.30622593747928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>2.1550079818352499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>-3.1289229917325501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>2.5999714627657702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>-1.5574452728143899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>9.1782555190403903E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>-0.50925699525906098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>2.3326017154874199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>-1.0493759773906499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>1.6378837247479201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>-1.04373065811646</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>2.4113570737736501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.74053387699999995</c:v>
+                  <c:v>-0.87015809566787194</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>0.51686623426862299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>-0.90772281929403997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>1.32428890270531</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>-1.6568251855998299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.74053387699999995</c:v>
+                  <c:v>0.123582682285255</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.569095124</c:v>
+                  <c:v>-0.84908092347191</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>0.44582259939588698</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>0.51822669108114505</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>-0.96639922258347799</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>-0.48742428944131</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.74053387699999995</c:v>
+                  <c:v>0.230248796302158</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.569095124</c:v>
+                  <c:v>0.69108014969564502</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4764067609999998</c:v>
+                  <c:v>0.81298599071942301</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>0.925758166340791</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>1.2240267484640399</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>0.487782617561625</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>-0.14242186039553001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.74053387699999995</c:v>
+                  <c:v>0.49680488484584101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.569095124</c:v>
+                  <c:v>-8.0583462385119695E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.4764067609999998</c:v>
+                  <c:v>3.3680983436600198E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.5098294240000001</c:v>
+                  <c:v>-0.65417990025954698</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>-0.983580534991078</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>-0.56554598519382104</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>0.13175598633335101</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>0.473391541052197</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.74053387699999995</c:v>
+                  <c:v>-0.22317601688414301</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.569095124</c:v>
+                  <c:v>1.0813330821484299</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.4764067609999998</c:v>
+                  <c:v>-0.72605891652248999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.5098294240000001</c:v>
+                  <c:v>-0.33350041679081099</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9452959919999999</c:v>
+                  <c:v>-1.5745186884918201</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>0.34065779320642298</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>-0.523343354442527</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>1.01834514150671</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>-0.44752352104399901</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.74053387699999995</c:v>
+                  <c:v>-1.2375280580540999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.569095124</c:v>
+                  <c:v>0.79252893300122995</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.4764067609999998</c:v>
+                  <c:v>-1.9183027855413599</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.5098294240000001</c:v>
+                  <c:v>-1.0291743749692199</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.9452959919999999</c:v>
+                  <c:v>-0.238930973107782</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.54324645100000002</c:v>
+                  <c:v>-1.3935707333870999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>-0.69956564860434101</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>0.59791663887240498</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>-0.18039488673455001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>-2.1038393320336599</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.74053387699999995</c:v>
+                  <c:v>0.39866892305290502</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.569095124</c:v>
+                  <c:v>-9.76513984000279E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.4764067609999998</c:v>
+                  <c:v>5.5537113945226098E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.5098294240000001</c:v>
+                  <c:v>-0.154608062531297</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.9452959919999999</c:v>
+                  <c:v>-1.6660949095858799</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.54324645100000002</c:v>
+                  <c:v>-0.91732713679992695</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.793556945</c:v>
+                  <c:v>-0.45038242178223198</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>-0.61991424001333695</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>0.22540788679639301</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>-0.25831660858309102</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>0.334550249810805</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.74053387699999995</c:v>
+                  <c:v>-2.9465255234090702E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-1.569095124</c:v>
+                  <c:v>-0.85809623578518102</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.4764067609999998</c:v>
+                  <c:v>1.14795165236472</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.5098294240000001</c:v>
+                  <c:v>-1.4268467230840001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9452959919999999</c:v>
+                  <c:v>1.4137235316510599</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.54324645100000002</c:v>
+                  <c:v>-1.42175275197387</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.793556945</c:v>
+                  <c:v>1.5579031954020901E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.78308502599999996</c:v>
+                  <c:v>-0.21117032509730199</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>0.70705660892916</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>-0.62512117228798902</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>2.0142966293843001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>0.12122379037096601</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.74053387699999995</c:v>
+                  <c:v>0.84429500408832803</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.569095124</c:v>
+                  <c:v>-0.785978423543923</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.4764067609999998</c:v>
+                  <c:v>0.66132375785050401</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.5098294240000001</c:v>
+                  <c:v>-0.31354401388053299</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.9452959919999999</c:v>
+                  <c:v>-0.48134477897157202</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.54324645100000002</c:v>
+                  <c:v>0.39381423180485697</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.793556945</c:v>
+                  <c:v>-0.42566797004371498</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.78308502599999996</c:v>
+                  <c:v>-0.185903822917733</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2288086869999999</c:v>
+                  <c:v>0.75559436692839999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.37040599499999999</c:v>
+                  <c:v>0.85713537356773495</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.9772014000000006E-2</c:v>
+                  <c:v>0.100984277657185</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.35258001300000003</c:v>
+                  <c:v>0.33328432897353799</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.19110617099999999</c:v>
+                  <c:v>0.64876859852968005</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.74053387699999995</c:v>
+                  <c:v>0.64953113109677996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.569095124</c:v>
+                  <c:v>0.57426524365272202</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.4764067609999998</c:v>
+                  <c:v>1.3778914558462301</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.5098294240000001</c:v>
+                  <c:v>-1.1483674482470501</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.9452959919999999</c:v>
+                  <c:v>1.08366648160984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,304 +1405,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.61701006352908105</c:v>
+                  <c:v>-1.274920123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.604399747299184</c:v>
+                  <c:v>0.11789767800000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6285221684209701</c:v>
+                  <c:v>-1.1966895500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0191420168170799</c:v>
+                  <c:v>-0.40859586199999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.74706037248183099</c:v>
+                  <c:v>-0.73773440899999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.682969131589931</c:v>
+                  <c:v>0.82645874900000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17252965293722899</c:v>
+                  <c:v>-0.40207757500000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45637135541173601</c:v>
+                  <c:v>0.56501684200000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65970428418942195</c:v>
+                  <c:v>-0.94124792099999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.34037466379437598</c:v>
+                  <c:v>0.42038758700000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.11121229405391</c:v>
+                  <c:v>0.288798848</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47768595586836898</c:v>
+                  <c:v>0.133083323</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.193927300589328</c:v>
+                  <c:v>0.171571482</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.77773857797661194</c:v>
+                  <c:v>0.80645216500000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.272678399872465</c:v>
+                  <c:v>0.86633413800000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.50705895195158</c:v>
+                  <c:v>0.18245713899999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.79830216226818496</c:v>
+                  <c:v>-0.12607759199999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.50577493875658497</c:v>
+                  <c:v>-0.655444429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.27324298804070501</c:v>
+                  <c:v>0.69493829699999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30740998235276301</c:v>
+                  <c:v>-0.68692414000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.27286872891930503</c:v>
+                  <c:v>-0.53678160500000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.4100141193808201E-2</c:v>
+                  <c:v>-0.25939520799999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.92700031130784699</c:v>
+                  <c:v>-0.212313482</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.22442397467522501</c:v>
+                  <c:v>-0.111155005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.318553324538008</c:v>
+                  <c:v>-0.13852035500000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.73367182822708898</c:v>
+                  <c:v>-1.2790014489999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.131099253018468</c:v>
+                  <c:v>1.1426580930000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7492016635927902E-2</c:v>
+                  <c:v>-0.47489803899999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.70096073100538103</c:v>
+                  <c:v>-0.971739503</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.50347185963478702</c:v>
+                  <c:v>-1.1056026370000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.7405783678896301E-2</c:v>
+                  <c:v>1.24611487</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.7017621694951499</c:v>
+                  <c:v>-0.636722648</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.42926381405832398</c:v>
+                  <c:v>1.8465713690000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.34597806969433</c:v>
+                  <c:v>-1.6911542690000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9.46042088740605E-2</c:v>
+                  <c:v>1.318528119</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.14383739660967501</c:v>
+                  <c:v>-0.29561134300000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.58514665646082398</c:v>
+                  <c:v>1.100931267</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.38405056351334699</c:v>
+                  <c:v>-0.51299335999999995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.69541984869180296</c:v>
+                  <c:v>0.85314663000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2065636247484299</c:v>
+                  <c:v>-1.518920515</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.225198516821185</c:v>
+                  <c:v>0.35371246699999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-5.3293215737503799E-2</c:v>
+                  <c:v>-0.206163981</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.76026868634959299</c:v>
+                  <c:v>0.71592020099999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.0839777032931601</c:v>
+                  <c:v>-2.2901450200000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.60461162359965304</c:v>
+                  <c:v>0.492292326</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.484877403294663</c:v>
+                  <c:v>-1.499215027</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.19590721922080501</c:v>
+                  <c:v>1.402475592</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.61964332385864795</c:v>
+                  <c:v>-9.6742182999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.34082059775624901</c:v>
+                  <c:v>1.4320767219999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.28302319860894</c:v>
+                  <c:v>-0.183236599</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.257794667316527</c:v>
+                  <c:v>2.7403080740000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.7127976050784699</c:v>
+                  <c:v>-1.3575962939999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0269284836212</c:v>
+                  <c:v>0.77440982300000005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.6631577244479301</c:v>
+                  <c:v>-2.6523982419999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.465443999147934</c:v>
+                  <c:v>0.49076328800000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.53788527370778505</c:v>
+                  <c:v>-0.358985041</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3271360396107701</c:v>
+                  <c:v>1.6428992E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.48910954661237</c:v>
+                  <c:v>0.133080436</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0363158806967701</c:v>
+                  <c:v>-0.795894608</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.76950332921785602</c:v>
+                  <c:v>0.24109868700000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.13622550905259201</c:v>
+                  <c:v>0.71294544999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.7404686945021299</c:v>
+                  <c:v>-0.17747428100000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.03226427961934</c:v>
+                  <c:v>1.9790268E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.45700500418645901</c:v>
+                  <c:v>-1.0733963390000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.62490262024828303</c:v>
+                  <c:v>-0.21352565500000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.45286612386005798</c:v>
+                  <c:v>0.15906208899999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-4.6091892420703703E-2</c:v>
+                  <c:v>0.62147977899999995</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.52339511430176699</c:v>
+                  <c:v>0.61641373799999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.36901823019783703</c:v>
+                  <c:v>3.2683698999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.23003661338438999</c:v>
+                  <c:v>0.29026197599999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.71198775652837E-2</c:v>
+                  <c:v>0.317171076</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.48417315250874499</c:v>
+                  <c:v>0.23736105800000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.65114898246378194</c:v>
+                  <c:v>0.132768049</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.61488508028969302</c:v>
+                  <c:v>1.182647834</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.702565124167841</c:v>
+                  <c:v>-0.59802665200000005</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.44419594276442</c:v>
+                  <c:v>6.1157030000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.85098187085046695</c:v>
+                  <c:v>-0.57914875399999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.60964007912614</c:v>
+                  <c:v>-6.1770249999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.401054475049271</c:v>
+                  <c:v>0.60244593700000004</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.36676012315693</c:v>
+                  <c:v>0.56859849699999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.98015499797010397</c:v>
+                  <c:v>-1.3516819149999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3481485702328599</c:v>
+                  <c:v>-2.9654336999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.31959865545079702</c:v>
+                  <c:v>-1.560643969</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.44157724200295201</c:v>
+                  <c:v>1.5287090649999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.86122496833343098</c:v>
+                  <c:v>-1.4417382940000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.6607226476440899</c:v>
+                  <c:v>0.63459993400000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-3.3302052157818598</c:v>
+                  <c:v>-1.6826797760000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.9184902183985399</c:v>
+                  <c:v>0.70056968600000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.52421789911215</c:v>
+                  <c:v>-1.0605126890000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.76648524008121799</c:v>
+                  <c:v>1.497501776</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.60216567547932298</c:v>
+                  <c:v>-4.7615330999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.126077193289655</c:v>
+                  <c:v>1.2067660499999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.50623593473047701</c:v>
+                  <c:v>-1.2499301789999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.62974739189536</c:v>
+                  <c:v>4.9685745000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-1.70705144598787E-2</c:v>
+                  <c:v>-1.694975581</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.118792659344617</c:v>
+                  <c:v>0.83962958799999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.18552573362412</c:v>
+                  <c:v>5.4136352999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.16007333554020201</c:v>
+                  <c:v>0.17908047599999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.985375021577648</c:v>
+                  <c:v>0.55226890500000003</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.29028433940705</c:v>
+                  <c:v>-0.40351039900000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5533,8 +5533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F8989A-FDDF-4EC3-BE81-6E53CB1D42CD}">
   <dimension ref="A2:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5609,10 +5609,10 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.37040599499999999</v>
+        <v>-1.5963383080587601</v>
       </c>
       <c r="I9">
-        <v>-0.61701006352908105</v>
+        <v>-1.274920123</v>
       </c>
       <c r="L9">
         <v>0.36066286446302398</v>
@@ -5623,22 +5623,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-0.77272567616496202</v>
+        <v>-0.79879739500000002</v>
       </c>
       <c r="B10">
-        <v>-0.39910108822856399</v>
+        <v>-0.40025780500000002</v>
       </c>
       <c r="D10">
-        <v>-0.77272567616496202</v>
+        <v>-0.79879739500000002</v>
       </c>
       <c r="E10">
-        <v>-0.39910108822856399</v>
+        <v>-0.40025780500000002</v>
       </c>
       <c r="H10">
-        <v>-0.37040599499999999</v>
+        <v>1.4484814511758299</v>
       </c>
       <c r="I10">
-        <v>-0.604399747299184</v>
+        <v>0.11789767800000001</v>
       </c>
       <c r="L10">
         <v>-1.0153312479274701</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.794123715685915</v>
+        <v>0.82050574300000001</v>
       </c>
       <c r="B11">
-        <v>0.49967366703670901</v>
+        <v>0.49870862100000002</v>
       </c>
       <c r="D11">
-        <v>0.197018745081317</v>
+        <v>0.18242846500000001</v>
       </c>
       <c r="E11">
-        <v>0.34039198841148499</v>
+        <v>0.33850230999999997</v>
       </c>
       <c r="H11">
-        <v>9.9772014000000006E-2</v>
+        <v>-3.30622593747928</v>
       </c>
       <c r="I11">
-        <v>-1.6285221684209701</v>
+        <v>-1.1966895500000001</v>
       </c>
       <c r="L11">
         <v>0.36066286446302398</v>
@@ -5675,22 +5675,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-0.68809183676464403</v>
+        <v>-0.72478170200000003</v>
       </c>
       <c r="B12">
-        <v>-0.27676867414509199</v>
+        <v>-0.28262843900000001</v>
       </c>
       <c r="D12">
-        <v>8.09308338880117E-2</v>
+        <v>7.8988272999999998E-2</v>
       </c>
       <c r="E12">
-        <v>6.6169256954617603E-2</v>
+        <v>5.9262268E-2</v>
       </c>
       <c r="H12">
-        <v>-0.37040599499999999</v>
+        <v>2.1550079818352499</v>
       </c>
       <c r="I12">
-        <v>1.0191420168170799</v>
+        <v>-0.40859586199999998</v>
       </c>
       <c r="L12">
         <v>-1.0153312479274701</v>
@@ -5701,22 +5701,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.65630003664377401</v>
+        <v>0.69973032800000001</v>
       </c>
       <c r="B13">
-        <v>0.27362594142479701</v>
+        <v>0.27113624600000003</v>
       </c>
       <c r="D13">
-        <v>3.2123013928178699E-2</v>
+        <v>3.5587624999999998E-2</v>
       </c>
       <c r="E13">
-        <v>2.21417789803505E-2</v>
+        <v>1.4641364E-2</v>
       </c>
       <c r="H13">
-        <v>9.9772014000000006E-2</v>
+        <v>-3.1289229917325501</v>
       </c>
       <c r="I13">
-        <v>-0.74706037248183099</v>
+        <v>-0.73773440899999998</v>
       </c>
       <c r="L13">
         <v>0.51052283421258904</v>
@@ -5727,22 +5727,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-0.59252815220899402</v>
+        <v>-0.64049904499999999</v>
       </c>
       <c r="B14">
-        <v>-0.17823015074023599</v>
+        <v>-0.175862514</v>
       </c>
       <c r="D14">
-        <v>1.1250529544135E-2</v>
+        <v>1.4884757E-2</v>
       </c>
       <c r="E14">
-        <v>1.0887008353967899E-3</v>
+        <v>5.2577819999999999E-3</v>
       </c>
       <c r="H14">
-        <v>-0.35258001300000003</v>
+        <v>2.5999714627657702</v>
       </c>
       <c r="I14">
-        <v>0.682969131589931</v>
+        <v>0.82645874900000005</v>
       </c>
       <c r="L14">
         <v>0.36066286446302398</v>
@@ -5753,22 +5753,22 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.55139255627537798</v>
+        <v>0.60583042899999995</v>
       </c>
       <c r="B15">
-        <v>0.15986760414596199</v>
+        <v>0.15786850699999999</v>
       </c>
       <c r="D15">
-        <v>3.2493816020453602E-3</v>
+        <v>6.7656799999999996E-3</v>
       </c>
       <c r="E15">
-        <v>3.72810136688346E-3</v>
+        <v>8.2188769999999994E-3</v>
       </c>
       <c r="H15">
-        <v>-0.37040599499999999</v>
+        <v>-1.5574452728143899</v>
       </c>
       <c r="I15">
-        <v>0.17252965293722899</v>
+        <v>-0.40207757500000002</v>
       </c>
       <c r="L15">
         <v>-1.0153312479274701</v>
@@ -5779,22 +5779,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-0.49908151616957402</v>
+        <v>-0.55684412800000005</v>
       </c>
       <c r="B16">
-        <v>-0.10381158163785401</v>
+        <v>-0.10079917400000001</v>
       </c>
       <c r="D16">
-        <v>6.6033244685496104E-3</v>
+        <v>7.9763609999999995E-3</v>
       </c>
       <c r="E16">
-        <v>1.09412342510404E-2</v>
+        <v>1.2081491999999999E-2</v>
       </c>
       <c r="H16">
-        <v>9.9772014000000006E-2</v>
+        <v>9.1782555190403903E-2</v>
       </c>
       <c r="I16">
-        <v>0.45637135541173601</v>
+        <v>0.56501684200000002</v>
       </c>
       <c r="L16">
         <v>0.51052283421258904</v>
@@ -5805,22 +5805,22 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.46092449091568799</v>
+        <v>0.52421377700000005</v>
       </c>
       <c r="B17">
-        <v>8.7651036427308399E-2</v>
+        <v>8.1470363000000004E-2</v>
       </c>
       <c r="D17">
-        <v>3.9547097025645203E-3</v>
+        <v>6.4494460000000002E-3</v>
       </c>
       <c r="E17" s="1">
-        <v>3.8876787037997403E-4</v>
+        <v>-4.1263589999999996E-3</v>
       </c>
       <c r="H17">
-        <v>-0.35258001300000003</v>
+        <v>-0.50925699525906098</v>
       </c>
       <c r="I17">
-        <v>0.65970428418942195</v>
+        <v>-0.94124792099999999</v>
       </c>
       <c r="L17">
         <v>-1.8061781908960199</v>
@@ -5831,22 +5831,22 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-0.41832171430070703</v>
+        <v>-0.48741896299999998</v>
       </c>
       <c r="B18">
-        <v>-7.3223280356745704E-2</v>
+        <v>-5.5429320999999997E-2</v>
       </c>
       <c r="D18">
-        <v>3.4058572212802901E-3</v>
+        <v>9.81813E-4</v>
       </c>
       <c r="E18">
-        <v>-1.6044999427776398E-2</v>
+        <v>-2.5622660000000001E-3</v>
       </c>
       <c r="H18">
-        <v>-0.19110617099999999</v>
+        <v>2.3326017154874199</v>
       </c>
       <c r="I18">
-        <v>-0.34037466379437598</v>
+        <v>0.42038758700000001</v>
       </c>
       <c r="L18">
         <v>0.36066286446302398</v>
@@ -5857,22 +5857,22 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.38549815368051998</v>
+        <v>0.45369226499999998</v>
       </c>
       <c r="B19">
-        <v>5.3287197111629103E-2</v>
+        <v>5.1220163999999999E-2</v>
       </c>
       <c r="D19">
-        <v>2.8172214526876798E-3</v>
+        <v>-2.9100350000000001E-3</v>
       </c>
       <c r="E19">
-        <v>-7.7753769944712402E-3</v>
+        <v>9.3679969999999994E-3</v>
       </c>
       <c r="H19">
-        <v>-0.37040599499999999</v>
+        <v>-1.0493759773906499</v>
       </c>
       <c r="I19">
-        <v>1.11121229405391</v>
+        <v>0.288798848</v>
       </c>
       <c r="L19">
         <v>-1.0153312479274701</v>
@@ -5883,10 +5883,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H20">
-        <v>9.9772014000000006E-2</v>
+        <v>1.6378837247479201</v>
       </c>
       <c r="I20">
-        <v>0.47768595586836898</v>
+        <v>0.133083323</v>
       </c>
       <c r="L20">
         <v>0.51052283421258904</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H21">
-        <v>-0.35258001300000003</v>
+        <v>-1.04373065811646</v>
       </c>
       <c r="I21">
-        <v>0.193927300589328</v>
+        <v>0.171571482</v>
       </c>
       <c r="L21">
         <v>-1.8061781908960199</v>
@@ -5911,10 +5911,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H22">
-        <v>-0.19110617099999999</v>
+        <v>2.4113570737736501</v>
       </c>
       <c r="I22">
-        <v>-0.77773857797661194</v>
+        <v>0.80645216500000005</v>
       </c>
       <c r="L22">
         <v>0.118764845641502</v>
@@ -5925,10 +5925,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H23">
-        <v>0.74053387699999995</v>
+        <v>-0.87015809566787194</v>
       </c>
       <c r="I23">
-        <v>-0.272678399872465</v>
+        <v>0.86633413800000003</v>
       </c>
       <c r="L23">
         <v>0.36066286446302398</v>
@@ -5939,10 +5939,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H24">
-        <v>-0.37040599499999999</v>
+        <v>0.51686623426862299</v>
       </c>
       <c r="I24">
-        <v>-1.50705895195158</v>
+        <v>0.18245713899999999</v>
       </c>
       <c r="L24">
         <v>-1.0153312479274701</v>
@@ -5953,10 +5953,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H25">
-        <v>9.9772014000000006E-2</v>
+        <v>-0.90772281929403997</v>
       </c>
       <c r="I25">
-        <v>-0.79830216226818496</v>
+        <v>-0.12607759199999999</v>
       </c>
       <c r="L25">
         <v>0.51052283421258904</v>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H26">
-        <v>-0.35258001300000003</v>
+        <v>1.32428890270531</v>
       </c>
       <c r="I26">
-        <v>-0.50577493875658497</v>
+        <v>-0.655444429</v>
       </c>
       <c r="L26">
         <v>-1.8061781908960199</v>
@@ -5981,10 +5981,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H27">
-        <v>-0.19110617099999999</v>
+        <v>-1.6568251855998299</v>
       </c>
       <c r="I27">
-        <v>-0.27324298804070501</v>
+        <v>0.69493829699999998</v>
       </c>
       <c r="L27">
         <v>0.118764845641502</v>
@@ -5996,10 +5996,10 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
       <c r="H28">
-        <v>0.74053387699999995</v>
+        <v>0.123582682285255</v>
       </c>
       <c r="I28">
-        <v>0.30740998235276301</v>
+        <v>-0.68692414000000002</v>
       </c>
       <c r="L28">
         <v>1.1767885803742</v>
@@ -6010,10 +6010,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H29">
-        <v>-1.569095124</v>
+        <v>-0.84908092347191</v>
       </c>
       <c r="I29">
-        <v>-0.27286872891930503</v>
+        <v>-0.53678160500000005</v>
       </c>
       <c r="L29">
         <v>0.36066286446302398</v>
@@ -6025,10 +6025,10 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
       <c r="H30">
-        <v>-0.37040599499999999</v>
+        <v>0.44582259939588698</v>
       </c>
       <c r="I30">
-        <v>-2.4100141193808201E-2</v>
+        <v>-0.25939520799999999</v>
       </c>
       <c r="L30">
         <v>-1.0153312479274701</v>
@@ -6039,10 +6039,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H31">
-        <v>9.9772014000000006E-2</v>
+        <v>0.51822669108114505</v>
       </c>
       <c r="I31">
-        <v>-0.92700031130784699</v>
+        <v>-0.212313482</v>
       </c>
       <c r="L31">
         <v>0.51052283421258904</v>
@@ -6053,10 +6053,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H32">
-        <v>-0.35258001300000003</v>
+        <v>-0.96639922258347799</v>
       </c>
       <c r="I32">
-        <v>0.22442397467522501</v>
+        <v>-0.111155005</v>
       </c>
       <c r="L32">
         <v>-1.8061781908960199</v>
@@ -6067,10 +6067,10 @@
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H33">
-        <v>-0.19110617099999999</v>
+        <v>-0.48742428944131</v>
       </c>
       <c r="I33">
-        <v>-0.318553324538008</v>
+        <v>-0.13852035500000001</v>
       </c>
       <c r="L33">
         <v>0.118764845641502</v>
@@ -6081,10 +6081,10 @@
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H34">
-        <v>0.74053387699999995</v>
+        <v>0.230248796302158</v>
       </c>
       <c r="I34">
-        <v>-0.73367182822708898</v>
+        <v>-1.2790014489999999</v>
       </c>
       <c r="L34">
         <v>1.1767885803742</v>
@@ -6095,10 +6095,10 @@
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H35">
-        <v>-1.569095124</v>
+        <v>0.69108014969564502</v>
       </c>
       <c r="I35">
-        <v>-0.131099253018468</v>
+        <v>1.1426580930000001</v>
       </c>
       <c r="L35">
         <v>0.53024870751470499</v>
@@ -6109,10 +6109,10 @@
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H36">
-        <v>2.4764067609999998</v>
+        <v>0.81298599071942301</v>
       </c>
       <c r="I36">
-        <v>2.7492016635927902E-2</v>
+        <v>-0.47489803899999999</v>
       </c>
       <c r="L36">
         <v>0.36066286446302398</v>
@@ -6123,10 +6123,10 @@
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H37">
-        <v>-0.37040599499999999</v>
+        <v>0.925758166340791</v>
       </c>
       <c r="I37">
-        <v>-0.70096073100538103</v>
+        <v>-0.971739503</v>
       </c>
       <c r="L37">
         <v>-1.0153312479274701</v>
@@ -6137,10 +6137,10 @@
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H38">
-        <v>9.9772014000000006E-2</v>
+        <v>1.2240267484640399</v>
       </c>
       <c r="I38">
-        <v>-0.50347185963478702</v>
+        <v>-1.1056026370000001</v>
       </c>
       <c r="L38">
         <v>0.51052283421258904</v>
@@ -6151,10 +6151,10 @@
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H39">
-        <v>-0.35258001300000003</v>
+        <v>0.487782617561625</v>
       </c>
       <c r="I39">
-        <v>1.7405783678896301E-2</v>
+        <v>1.24611487</v>
       </c>
       <c r="L39">
         <v>-1.8061781908960199</v>
@@ -6165,10 +6165,10 @@
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H40">
-        <v>-0.19110617099999999</v>
+        <v>-0.14242186039553001</v>
       </c>
       <c r="I40">
-        <v>-1.7017621694951499</v>
+        <v>-0.636722648</v>
       </c>
       <c r="L40">
         <v>0.118764845641502</v>
@@ -6179,10 +6179,10 @@
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H41">
-        <v>0.74053387699999995</v>
+        <v>0.49680488484584101</v>
       </c>
       <c r="I41">
-        <v>0.42926381405832398</v>
+        <v>1.8465713690000001</v>
       </c>
       <c r="L41">
         <v>1.1767885803742</v>
@@ -6193,10 +6193,10 @@
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H42">
-        <v>-1.569095124</v>
+        <v>-8.0583462385119695E-2</v>
       </c>
       <c r="I42">
-        <v>-1.34597806969433</v>
+        <v>-1.6911542690000001</v>
       </c>
       <c r="L42">
         <v>0.53024870751470499</v>
@@ -6207,10 +6207,10 @@
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H43">
-        <v>2.4764067609999998</v>
+        <v>3.3680983436600198E-2</v>
       </c>
       <c r="I43">
-        <v>-9.46042088740605E-2</v>
+        <v>1.318528119</v>
       </c>
       <c r="L43">
         <v>-1.9406655767633001</v>
@@ -6221,10 +6221,10 @@
     </row>
     <row r="44" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H44">
-        <v>-1.5098294240000001</v>
+        <v>-0.65417990025954698</v>
       </c>
       <c r="I44">
-        <v>-0.14383739660967501</v>
+        <v>-0.29561134300000003</v>
       </c>
       <c r="L44">
         <v>0.36066286446302398</v>
@@ -6235,10 +6235,10 @@
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H45">
-        <v>-0.37040599499999999</v>
+        <v>-0.983580534991078</v>
       </c>
       <c r="I45">
-        <v>0.58514665646082398</v>
+        <v>1.100931267</v>
       </c>
       <c r="L45">
         <v>-1.0153312479274701</v>
@@ -6249,10 +6249,10 @@
     </row>
     <row r="46" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H46">
-        <v>9.9772014000000006E-2</v>
+        <v>-0.56554598519382104</v>
       </c>
       <c r="I46">
-        <v>-0.38405056351334699</v>
+        <v>-0.51299335999999995</v>
       </c>
       <c r="L46">
         <v>0.51052283421258904</v>
@@ -6263,10 +6263,10 @@
     </row>
     <row r="47" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H47">
-        <v>-0.35258001300000003</v>
+        <v>0.13175598633335101</v>
       </c>
       <c r="I47">
-        <v>0.69541984869180296</v>
+        <v>0.85314663000000002</v>
       </c>
       <c r="L47">
         <v>-1.8061781908960199</v>
@@ -6277,10 +6277,10 @@
     </row>
     <row r="48" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H48">
-        <v>-0.19110617099999999</v>
+        <v>0.473391541052197</v>
       </c>
       <c r="I48">
-        <v>1.2065636247484299</v>
+        <v>-1.518920515</v>
       </c>
       <c r="L48">
         <v>0.118764845641502</v>
@@ -6291,10 +6291,10 @@
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H49">
-        <v>0.74053387699999995</v>
+        <v>-0.22317601688414301</v>
       </c>
       <c r="I49">
-        <v>-0.225198516821185</v>
+        <v>0.35371246699999997</v>
       </c>
       <c r="L49">
         <v>1.1767885803742</v>
@@ -6305,10 +6305,10 @@
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H50">
-        <v>-1.569095124</v>
+        <v>1.0813330821484299</v>
       </c>
       <c r="I50">
-        <v>-5.3293215737503799E-2</v>
+        <v>-0.206163981</v>
       </c>
       <c r="L50">
         <v>0.53024870751470499</v>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H51">
-        <v>2.4764067609999998</v>
+        <v>-0.72605891652248999</v>
       </c>
       <c r="I51">
-        <v>-0.76026868634959299</v>
+        <v>0.71592020099999998</v>
       </c>
       <c r="L51">
         <v>-1.9406655767633001</v>
@@ -6333,10 +6333,10 @@
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H52">
-        <v>-1.5098294240000001</v>
+        <v>-0.33350041679081099</v>
       </c>
       <c r="I52">
-        <v>-2.0839777032931601</v>
+        <v>-2.2901450200000002</v>
       </c>
       <c r="L52">
         <v>0.46042981055881699</v>
@@ -6347,10 +6347,10 @@
     </row>
     <row r="53" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H53">
-        <v>1.9452959919999999</v>
+        <v>-1.5745186884918201</v>
       </c>
       <c r="I53">
-        <v>0.60461162359965304</v>
+        <v>0.492292326</v>
       </c>
       <c r="L53">
         <v>0.36066286446302398</v>
@@ -6361,10 +6361,10 @@
     </row>
     <row r="54" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H54">
-        <v>-0.37040599499999999</v>
+        <v>0.34065779320642298</v>
       </c>
       <c r="I54">
-        <v>-0.484877403294663</v>
+        <v>-1.499215027</v>
       </c>
       <c r="L54">
         <v>-1.0153312479274701</v>
@@ -6375,10 +6375,10 @@
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H55">
-        <v>9.9772014000000006E-2</v>
+        <v>-0.523343354442527</v>
       </c>
       <c r="I55">
-        <v>0.19590721922080501</v>
+        <v>1.402475592</v>
       </c>
       <c r="L55">
         <v>0.51052283421258904</v>
@@ -6389,10 +6389,10 @@
     </row>
     <row r="56" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H56">
-        <v>-0.35258001300000003</v>
+        <v>1.01834514150671</v>
       </c>
       <c r="I56">
-        <v>-0.61964332385864795</v>
+        <v>-9.6742182999999995E-2</v>
       </c>
       <c r="L56">
         <v>-1.8061781908960199</v>
@@ -6403,10 +6403,10 @@
     </row>
     <row r="57" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H57">
-        <v>-0.19110617099999999</v>
+        <v>-0.44752352104399901</v>
       </c>
       <c r="I57">
-        <v>0.34082059775624901</v>
+        <v>1.4320767219999999</v>
       </c>
       <c r="L57">
         <v>0.118764845641502</v>
@@ -6417,10 +6417,10 @@
     </row>
     <row r="58" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H58">
-        <v>0.74053387699999995</v>
+        <v>-1.2375280580540999</v>
       </c>
       <c r="I58">
-        <v>-1.28302319860894</v>
+        <v>-0.183236599</v>
       </c>
       <c r="L58">
         <v>1.1767885803742</v>
@@ -6431,10 +6431,10 @@
     </row>
     <row r="59" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H59">
-        <v>-1.569095124</v>
+        <v>0.79252893300122995</v>
       </c>
       <c r="I59">
-        <v>-0.257794667316527</v>
+        <v>2.7403080740000001</v>
       </c>
       <c r="L59">
         <v>0.53024870751470499</v>
@@ -6445,10 +6445,10 @@
     </row>
     <row r="60" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H60">
-        <v>2.4764067609999998</v>
+        <v>-1.9183027855413599</v>
       </c>
       <c r="I60">
-        <v>-1.7127976050784699</v>
+        <v>-1.3575962939999999</v>
       </c>
       <c r="L60">
         <v>-1.9406655767633001</v>
@@ -6459,10 +6459,10 @@
     </row>
     <row r="61" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H61">
-        <v>-1.5098294240000001</v>
+        <v>-1.0291743749692199</v>
       </c>
       <c r="I61">
-        <v>1.0269284836212</v>
+        <v>0.77440982300000005</v>
       </c>
       <c r="L61">
         <v>0.46042981055881699</v>
@@ -6473,10 +6473,10 @@
     </row>
     <row r="62" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H62">
-        <v>1.9452959919999999</v>
+        <v>-0.238930973107782</v>
       </c>
       <c r="I62">
-        <v>-2.6631577244479301</v>
+        <v>-2.6523982419999999</v>
       </c>
       <c r="L62">
         <v>1.0682649539769501E-2</v>
@@ -6487,10 +6487,10 @@
     </row>
     <row r="63" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H63">
-        <v>-0.54324645100000002</v>
+        <v>-1.3935707333870999</v>
       </c>
       <c r="I63">
-        <v>0.465443999147934</v>
+        <v>0.49076328800000002</v>
       </c>
       <c r="L63">
         <v>0.36066286446302398</v>
@@ -6501,10 +6501,10 @@
     </row>
     <row r="64" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H64">
-        <v>-0.37040599499999999</v>
+        <v>-0.69956564860434101</v>
       </c>
       <c r="I64">
-        <v>-0.53788527370778505</v>
+        <v>-0.358985041</v>
       </c>
       <c r="L64">
         <v>-1.0153312479274701</v>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H65">
-        <v>9.9772014000000006E-2</v>
+        <v>0.59791663887240498</v>
       </c>
       <c r="I65">
-        <v>1.3271360396107701</v>
+        <v>1.6428992E-2</v>
       </c>
       <c r="L65">
         <v>0.51052283421258904</v>
@@ -6529,10 +6529,10 @@
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H66">
-        <v>-0.35258001300000003</v>
+        <v>-0.18039488673455001</v>
       </c>
       <c r="I66">
-        <v>-1.48910954661237</v>
+        <v>0.133080436</v>
       </c>
       <c r="L66">
         <v>-1.8061781908960199</v>
@@ -6543,10 +6543,10 @@
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H67">
-        <v>-0.19110617099999999</v>
+        <v>-2.1038393320336599</v>
       </c>
       <c r="I67">
-        <v>1.0363158806967701</v>
+        <v>-0.795894608</v>
       </c>
       <c r="L67">
         <v>0.118764845641502</v>
@@ -6557,10 +6557,10 @@
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H68">
-        <v>0.74053387699999995</v>
+        <v>0.39866892305290502</v>
       </c>
       <c r="I68">
-        <v>-0.76950332921785602</v>
+        <v>0.24109868700000001</v>
       </c>
       <c r="L68">
         <v>1.1767885803742</v>
@@ -6571,10 +6571,10 @@
     </row>
     <row r="69" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H69">
-        <v>-1.569095124</v>
+        <v>-9.76513984000279E-2</v>
       </c>
       <c r="I69">
-        <v>0.13622550905259201</v>
+        <v>0.71294544999999998</v>
       </c>
       <c r="L69">
         <v>0.53024870751470499</v>
@@ -6585,10 +6585,10 @@
     </row>
     <row r="70" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H70">
-        <v>2.4764067609999998</v>
+        <v>5.5537113945226098E-2</v>
       </c>
       <c r="I70">
-        <v>-1.7404686945021299</v>
+        <v>-0.17747428100000001</v>
       </c>
       <c r="L70">
         <v>-1.9406655767633001</v>
@@ -6599,10 +6599,10 @@
     </row>
     <row r="71" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H71">
-        <v>-1.5098294240000001</v>
+        <v>-0.154608062531297</v>
       </c>
       <c r="I71">
-        <v>1.03226427961934</v>
+        <v>1.9790268E-2</v>
       </c>
       <c r="L71">
         <v>0.46042981055881699</v>
@@ -6613,10 +6613,10 @@
     </row>
     <row r="72" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H72">
-        <v>1.9452959919999999</v>
+        <v>-1.6660949095858799</v>
       </c>
       <c r="I72">
-        <v>-0.45700500418645901</v>
+        <v>-1.0733963390000001</v>
       </c>
       <c r="L72">
         <v>1.0682649539769501E-2</v>
@@ -6627,10 +6627,10 @@
     </row>
     <row r="73" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H73">
-        <v>-0.54324645100000002</v>
+        <v>-0.91732713679992695</v>
       </c>
       <c r="I73">
-        <v>0.62490262024828303</v>
+        <v>-0.21352565500000001</v>
       </c>
       <c r="L73">
         <v>-0.28077588560882399</v>
@@ -6641,10 +6641,10 @@
     </row>
     <row r="74" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H74">
-        <v>1.793556945</v>
+        <v>-0.45038242178223198</v>
       </c>
       <c r="I74">
-        <v>-0.45286612386005798</v>
+        <v>0.15906208899999999</v>
       </c>
       <c r="L74">
         <v>0.36066286446302398</v>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="75" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H75">
-        <v>-0.37040599499999999</v>
+        <v>-0.61991424001333695</v>
       </c>
       <c r="I75">
-        <v>-4.6091892420703703E-2</v>
+        <v>0.62147977899999995</v>
       </c>
       <c r="L75">
         <v>-1.0153312479274701</v>
@@ -6669,10 +6669,10 @@
     </row>
     <row r="76" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H76">
-        <v>9.9772014000000006E-2</v>
+        <v>0.22540788679639301</v>
       </c>
       <c r="I76">
-        <v>-0.52339511430176699</v>
+        <v>0.61641373799999999</v>
       </c>
       <c r="L76">
         <v>0.51052283421258904</v>
@@ -6683,10 +6683,10 @@
     </row>
     <row r="77" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H77">
-        <v>-0.35258001300000003</v>
+        <v>-0.25831660858309102</v>
       </c>
       <c r="I77">
-        <v>-0.36901823019783703</v>
+        <v>3.2683698999999997E-2</v>
       </c>
       <c r="L77">
         <v>-1.8061781908960199</v>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="78" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H78">
-        <v>-0.19110617099999999</v>
+        <v>0.334550249810805</v>
       </c>
       <c r="I78">
-        <v>-0.23003661338438999</v>
+        <v>0.29026197599999998</v>
       </c>
       <c r="L78">
         <v>0.118764845641502</v>
@@ -6711,10 +6711,10 @@
     </row>
     <row r="79" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H79">
-        <v>0.74053387699999995</v>
+        <v>-2.9465255234090702E-3</v>
       </c>
       <c r="I79">
-        <v>-1.71198775652837E-2</v>
+        <v>0.317171076</v>
       </c>
       <c r="L79">
         <v>1.1767885803742</v>
@@ -6725,10 +6725,10 @@
     </row>
     <row r="80" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H80">
-        <v>-1.569095124</v>
+        <v>-0.85809623578518102</v>
       </c>
       <c r="I80">
-        <v>0.48417315250874499</v>
+        <v>0.23736105800000001</v>
       </c>
       <c r="L80">
         <v>0.53024870751470499</v>
@@ -6739,10 +6739,10 @@
     </row>
     <row r="81" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H81">
-        <v>2.4764067609999998</v>
+        <v>1.14795165236472</v>
       </c>
       <c r="I81">
-        <v>0.65114898246378194</v>
+        <v>0.132768049</v>
       </c>
       <c r="L81">
         <v>-1.9406655767633001</v>
@@ -6753,10 +6753,10 @@
     </row>
     <row r="82" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H82">
-        <v>-1.5098294240000001</v>
+        <v>-1.4268467230840001</v>
       </c>
       <c r="I82">
-        <v>0.61488508028969302</v>
+        <v>1.182647834</v>
       </c>
       <c r="L82">
         <v>0.46042981055881699</v>
@@ -6767,10 +6767,10 @@
     </row>
     <row r="83" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H83">
-        <v>1.9452959919999999</v>
+        <v>1.4137235316510599</v>
       </c>
       <c r="I83">
-        <v>-0.702565124167841</v>
+        <v>-0.59802665200000005</v>
       </c>
       <c r="L83">
         <v>1.0682649539769501E-2</v>
@@ -6781,10 +6781,10 @@
     </row>
     <row r="84" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H84">
-        <v>-0.54324645100000002</v>
+        <v>-1.42175275197387</v>
       </c>
       <c r="I84">
-        <v>1.44419594276442</v>
+        <v>6.1157030000000001E-2</v>
       </c>
       <c r="L84">
         <v>-0.28077588560882399</v>
@@ -6795,10 +6795,10 @@
     </row>
     <row r="85" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H85">
-        <v>1.793556945</v>
+        <v>1.5579031954020901E-2</v>
       </c>
       <c r="I85">
-        <v>-0.85098187085046695</v>
+        <v>-0.57914875399999999</v>
       </c>
       <c r="L85">
         <v>-0.89543833497012304</v>
@@ -6809,10 +6809,10 @@
     </row>
     <row r="86" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H86">
-        <v>-0.78308502599999996</v>
+        <v>-0.21117032509730199</v>
       </c>
       <c r="I86">
-        <v>1.60964007912614</v>
+        <v>-6.1770249999999999E-2</v>
       </c>
       <c r="L86">
         <v>0.36066286446302398</v>
@@ -6823,10 +6823,10 @@
     </row>
     <row r="87" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H87">
-        <v>-0.37040599499999999</v>
+        <v>0.70705660892916</v>
       </c>
       <c r="I87">
-        <v>0.401054475049271</v>
+        <v>0.60244593700000004</v>
       </c>
       <c r="L87">
         <v>-1.0153312479274701</v>
@@ -6837,10 +6837,10 @@
     </row>
     <row r="88" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H88">
-        <v>9.9772014000000006E-2</v>
+        <v>-0.62512117228798902</v>
       </c>
       <c r="I88">
-        <v>1.36676012315693</v>
+        <v>0.56859849699999998</v>
       </c>
       <c r="L88">
         <v>0.51052283421258904</v>
@@ -6851,10 +6851,10 @@
     </row>
     <row r="89" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H89">
-        <v>-0.35258001300000003</v>
+        <v>2.0142966293843001</v>
       </c>
       <c r="I89">
-        <v>-0.98015499797010397</v>
+        <v>-1.3516819149999999</v>
       </c>
       <c r="L89">
         <v>-1.8061781908960199</v>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="90" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H90">
-        <v>-0.19110617099999999</v>
+        <v>0.12122379037096601</v>
       </c>
       <c r="I90">
-        <v>1.3481485702328599</v>
+        <v>-2.9654336999999999E-2</v>
       </c>
       <c r="L90">
         <v>0.118764845641502</v>
@@ -6879,10 +6879,10 @@
     </row>
     <row r="91" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H91">
-        <v>0.74053387699999995</v>
+        <v>0.84429500408832803</v>
       </c>
       <c r="I91">
-        <v>-0.31959865545079702</v>
+        <v>-1.560643969</v>
       </c>
       <c r="L91">
         <v>1.1767885803742</v>
@@ -6893,10 +6893,10 @@
     </row>
     <row r="92" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H92">
-        <v>-1.569095124</v>
+        <v>-0.785978423543923</v>
       </c>
       <c r="I92">
-        <v>0.44157724200295201</v>
+        <v>1.5287090649999999</v>
       </c>
       <c r="L92">
         <v>0.53024870751470499</v>
@@ -6907,10 +6907,10 @@
     </row>
     <row r="93" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H93">
-        <v>2.4764067609999998</v>
+        <v>0.66132375785050401</v>
       </c>
       <c r="I93">
-        <v>-0.86122496833343098</v>
+        <v>-1.4417382940000001</v>
       </c>
       <c r="L93">
         <v>-1.9406655767633001</v>
@@ -6921,10 +6921,10 @@
     </row>
     <row r="94" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H94">
-        <v>-1.5098294240000001</v>
+        <v>-0.31354401388053299</v>
       </c>
       <c r="I94">
-        <v>1.6607226476440899</v>
+        <v>0.63459993400000003</v>
       </c>
       <c r="L94">
         <v>0.46042981055881699</v>
@@ -6935,10 +6935,10 @@
     </row>
     <row r="95" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H95">
-        <v>1.9452959919999999</v>
+        <v>-0.48134477897157202</v>
       </c>
       <c r="I95">
-        <v>-3.3302052157818598</v>
+        <v>-1.6826797760000001</v>
       </c>
       <c r="L95">
         <v>1.0682649539769501E-2</v>
@@ -6949,10 +6949,10 @@
     </row>
     <row r="96" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H96">
-        <v>-0.54324645100000002</v>
+        <v>0.39381423180485697</v>
       </c>
       <c r="I96">
-        <v>1.9184902183985399</v>
+        <v>0.70056968600000002</v>
       </c>
       <c r="L96">
         <v>-0.28077588560882399</v>
@@ -6963,10 +6963,10 @@
     </row>
     <row r="97" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H97">
-        <v>1.793556945</v>
+        <v>-0.42566797004371498</v>
       </c>
       <c r="I97">
-        <v>-1.52421789911215</v>
+        <v>-1.0605126890000001</v>
       </c>
       <c r="L97">
         <v>-0.89543833497012304</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="98" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H98">
-        <v>-0.78308502599999996</v>
+        <v>-0.185903822917733</v>
       </c>
       <c r="I98">
-        <v>0.76648524008121799</v>
+        <v>1.497501776</v>
       </c>
       <c r="L98">
         <v>-0.33086050199237499</v>
@@ -6991,10 +6991,10 @@
     </row>
     <row r="99" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H99">
-        <v>1.2288086869999999</v>
+        <v>0.75559436692839999</v>
       </c>
       <c r="I99">
-        <v>-0.60216567547932298</v>
+        <v>-4.7615330999999997E-2</v>
       </c>
       <c r="L99">
         <v>0.36066286446302398</v>
@@ -7005,10 +7005,10 @@
     </row>
     <row r="100" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H100">
-        <v>-0.37040599499999999</v>
+        <v>0.85713537356773495</v>
       </c>
       <c r="I100">
-        <v>0.126077193289655</v>
+        <v>1.2067660499999999</v>
       </c>
       <c r="L100">
         <v>-1.0153312479274701</v>
@@ -7019,10 +7019,10 @@
     </row>
     <row r="101" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H101">
-        <v>9.9772014000000006E-2</v>
+        <v>0.100984277657185</v>
       </c>
       <c r="I101">
-        <v>-0.50623593473047701</v>
+        <v>-1.2499301789999999</v>
       </c>
       <c r="L101">
         <v>0.51052283421258904</v>
@@ -7033,10 +7033,10 @@
     </row>
     <row r="102" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H102">
-        <v>-0.35258001300000003</v>
+        <v>0.33328432897353799</v>
       </c>
       <c r="I102">
-        <v>0.62974739189536</v>
+        <v>4.9685745000000003E-2</v>
       </c>
       <c r="L102">
         <v>-1.8061781908960199</v>
@@ -7047,10 +7047,10 @@
     </row>
     <row r="103" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H103">
-        <v>-0.19110617099999999</v>
+        <v>0.64876859852968005</v>
       </c>
       <c r="I103">
-        <v>-1.70705144598787E-2</v>
+        <v>-1.694975581</v>
       </c>
       <c r="L103">
         <v>0.118764845641502</v>
@@ -7061,10 +7061,10 @@
     </row>
     <row r="104" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H104">
-        <v>0.74053387699999995</v>
+        <v>0.64953113109677996</v>
       </c>
       <c r="I104">
-        <v>0.118792659344617</v>
+        <v>0.83962958799999998</v>
       </c>
       <c r="L104">
         <v>1.1767885803742</v>
@@ -7075,10 +7075,10 @@
     </row>
     <row r="105" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H105">
-        <v>-1.569095124</v>
+        <v>0.57426524365272202</v>
       </c>
       <c r="I105">
-        <v>0.18552573362412</v>
+        <v>5.4136352999999998E-2</v>
       </c>
       <c r="L105">
         <v>0.53024870751470499</v>
@@ -7089,10 +7089,10 @@
     </row>
     <row r="106" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H106">
-        <v>2.4764067609999998</v>
+        <v>1.3778914558462301</v>
       </c>
       <c r="I106">
-        <v>0.16007333554020201</v>
+        <v>0.17908047599999999</v>
       </c>
       <c r="L106">
         <v>-1.9406655767633001</v>
@@ -7103,10 +7103,10 @@
     </row>
     <row r="107" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H107">
-        <v>-1.5098294240000001</v>
+        <v>-1.1483674482470501</v>
       </c>
       <c r="I107">
-        <v>-0.985375021577648</v>
+        <v>0.55226890500000003</v>
       </c>
       <c r="L107">
         <v>0.46042981055881699</v>
@@ -7117,10 +7117,10 @@
     </row>
     <row r="108" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H108">
-        <v>1.9452959919999999</v>
+        <v>1.08366648160984</v>
       </c>
       <c r="I108">
-        <v>-1.29028433940705</v>
+        <v>-0.40351039900000002</v>
       </c>
     </row>
   </sheetData>

--- a/07_Test/VerlgeicheJARTAvsArta.Standard/Normalverteilung/Normalverteilung.xlsx
+++ b/07_Test/VerlgeicheJARTAvsArta.Standard/Normalverteilung/Normalverteilung.xlsx
@@ -50,16 +50,16 @@
     <t>PACFS JARTA</t>
   </si>
   <si>
-    <t>ARTA-Zahlen ARTA.Std</t>
-  </si>
-  <si>
-    <t>ARTA-Zahlen JARTA</t>
-  </si>
-  <si>
     <t>Zahlen N(0,1) JARTA</t>
   </si>
   <si>
     <t>Zahlen N(0,1)  Arta.Std</t>
+  </si>
+  <si>
+    <t>ARTA.Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JARTA</t>
   </si>
 </sst>
 </file>
@@ -226,34 +226,34 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.79879739500000002</c:v>
+                  <c:v>-0.80405275989693203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82050574300000001</c:v>
+                  <c:v>0.81812136653185996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.72478170200000003</c:v>
+                  <c:v>-0.73218482002427498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69973032800000001</c:v>
+                  <c:v>0.70091323849337395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.64049904499999999</c:v>
+                  <c:v>-0.64532439944367803</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60583042899999995</c:v>
+                  <c:v>0.59655251558270495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.55684412800000005</c:v>
+                  <c:v>-0.55354824913857803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52421377700000005</c:v>
+                  <c:v>0.50361549607471301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.48741896299999998</c:v>
+                  <c:v>-0.49015219676464</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45369226499999998</c:v>
+                  <c:v>0.44099517888782003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +1039,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ARTA-Zahlen ARTA.Std</c:v>
+                  <c:v>ARTA.Standard</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1063,304 +1063,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-1.5963383080587601</c:v>
+                  <c:v>1.34411443019038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4484814511758299</c:v>
+                  <c:v>-0.69573764348216804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.30622593747928</c:v>
+                  <c:v>1.2873535501291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1550079818352499</c:v>
+                  <c:v>-0.54438562042206495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.1289229917325501</c:v>
+                  <c:v>1.00976439655422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5999714627657702</c:v>
+                  <c:v>-0.35338626239055099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5574452728143899</c:v>
+                  <c:v>0.47367692610784401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1782555190403903E-2</c:v>
+                  <c:v>-0.28693859969469099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.50925699525906098</c:v>
+                  <c:v>-0.194185409111127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3326017154874199</c:v>
+                  <c:v>3.5910998530211201E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0493759773906499</c:v>
+                  <c:v>0.28379225357596899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6378837247479201</c:v>
+                  <c:v>2.5896501250334101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.04373065811646</c:v>
+                  <c:v>-0.92823247990393198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4113570737736501</c:v>
+                  <c:v>0.82035845791610196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.87015809566787194</c:v>
+                  <c:v>-1.479806503139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.51686623426862299</c:v>
+                  <c:v>0.79766933984770005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.90772281929403997</c:v>
+                  <c:v>-0.82329098356178898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.32428890270531</c:v>
+                  <c:v>1.76392853544121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.6568251855998299</c:v>
+                  <c:v>-1.9101212411211701</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.123582682285255</c:v>
+                  <c:v>-0.59620909541591005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.84908092347191</c:v>
+                  <c:v>-0.31320721055409301</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.44582259939588698</c:v>
+                  <c:v>-1.38514460152743</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.51822669108114505</c:v>
+                  <c:v>0.42328659470073798</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.96639922258347799</c:v>
+                  <c:v>0.76027687271338595</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.48742428944131</c:v>
+                  <c:v>1.42655078761202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.230248796302158</c:v>
+                  <c:v>-1.27613682341899</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.69108014969564502</c:v>
+                  <c:v>1.14943436662187</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.81298599071942301</c:v>
+                  <c:v>-0.64964759124169102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.925758166340791</c:v>
+                  <c:v>0.81030425275732698</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2240267484640399</c:v>
+                  <c:v>-0.711906013658127</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.487782617561625</c:v>
+                  <c:v>1.60617931313497</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.14242186039553001</c:v>
+                  <c:v>-0.22171661131501599</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.49680488484584101</c:v>
+                  <c:v>0.78393985547593803</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-8.0583462385119695E-2</c:v>
+                  <c:v>0.21344192391987299</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3680983436600198E-2</c:v>
+                  <c:v>0.85164247032894802</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.65417990025954698</c:v>
+                  <c:v>0.99624414217267998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.983580534991078</c:v>
+                  <c:v>0.39365964661248898</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.56554598519382104</c:v>
+                  <c:v>-0.24805032308209701</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13175598633335101</c:v>
+                  <c:v>-0.31975724232512598</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.473391541052197</c:v>
+                  <c:v>-3.7971700480985499E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.22317601688414301</c:v>
+                  <c:v>-0.60064227253510605</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0813330821484299</c:v>
+                  <c:v>0.34722303331121801</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.72605891652248999</c:v>
+                  <c:v>0.475054944557397</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.33350041679081099</c:v>
+                  <c:v>-0.80053115809063702</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.5745186884918201</c:v>
+                  <c:v>0.94710254150390405</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.34065779320642298</c:v>
+                  <c:v>-3.3320728415646501</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.523343354442527</c:v>
+                  <c:v>1.8450422781037701</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.01834514150671</c:v>
+                  <c:v>-2.2375978699339001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.44752352104399901</c:v>
+                  <c:v>0.96788450620132704</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.2375280580540999</c:v>
+                  <c:v>-0.92438317222704103</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.79252893300122995</c:v>
+                  <c:v>0.81716622265011796</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.9183027855413599</c:v>
+                  <c:v>0.86935297439233805</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.0291743749692199</c:v>
+                  <c:v>-9.9618412961166095E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.238930973107782</c:v>
+                  <c:v>1.1550544298932</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.3935707333870999</c:v>
+                  <c:v>-0.65756194514189603</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.69956564860434101</c:v>
+                  <c:v>-0.216181384561203</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.59791663887240498</c:v>
+                  <c:v>0.64299371598947297</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.18039488673455001</c:v>
+                  <c:v>-3.3716872747237801E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-2.1038393320336599</c:v>
+                  <c:v>-0.49670198380555303</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.39866892305290502</c:v>
+                  <c:v>0.93405873294542097</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-9.76513984000279E-2</c:v>
+                  <c:v>-0.31719547207716797</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.5537113945226098E-2</c:v>
+                  <c:v>-0.167471406057626</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.154608062531297</c:v>
+                  <c:v>-0.74181561056382395</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.6660949095858799</c:v>
+                  <c:v>0.61853310604191403</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.91732713679992695</c:v>
+                  <c:v>-2.2720768987623301</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.45038242178223198</c:v>
+                  <c:v>2.3296835009921799</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.61991424001333695</c:v>
+                  <c:v>-0.86351943340751602</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.22540788679639301</c:v>
+                  <c:v>1.2676712741427401</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.25831660858309102</c:v>
+                  <c:v>-1.02376113179109</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.334550249810805</c:v>
+                  <c:v>0.306134500464396</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.9465255234090702E-3</c:v>
+                  <c:v>-1.07681710296197</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.85809623578518102</c:v>
+                  <c:v>0.94050536479006797</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.14795165236472</c:v>
+                  <c:v>-1.0447057991072499</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.4268467230840001</c:v>
+                  <c:v>-0.49517186774794097</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.4137235316510599</c:v>
+                  <c:v>0.76499831840353505</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.42175275197387</c:v>
+                  <c:v>0.89553321452021395</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.5579031954020901E-2</c:v>
+                  <c:v>-0.65674736386182397</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.21117032509730199</c:v>
+                  <c:v>1.7441918441859601</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.70705660892916</c:v>
+                  <c:v>-0.81774335733855397</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.62512117228798902</c:v>
+                  <c:v>1.9972673899067499</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0142966293843001</c:v>
+                  <c:v>-1.1258927124497999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.12122379037096601</c:v>
+                  <c:v>-4.3406010192566402E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.84429500408832803</c:v>
+                  <c:v>-0.87252038796652098</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.785978423543923</c:v>
+                  <c:v>-0.173050536656042</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.66132375785050401</c:v>
+                  <c:v>-6.2112761164742701E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.31354401388053299</c:v>
+                  <c:v>0.78647091188345897</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.48134477897157202</c:v>
+                  <c:v>-0.44377896277241802</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.39381423180485697</c:v>
+                  <c:v>-0.48210423593632201</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.42566797004371498</c:v>
+                  <c:v>1.0652413809275401</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.185903822917733</c:v>
+                  <c:v>-0.43914335443994401</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.75559436692839999</c:v>
+                  <c:v>1.9335435695938501</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.85713537356773495</c:v>
+                  <c:v>0.11520822233120399</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.100984277657185</c:v>
+                  <c:v>0.51822433210422203</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.33328432897353799</c:v>
+                  <c:v>-0.511489189598335</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.64876859852968005</c:v>
+                  <c:v>1.0292888581584301</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.64953113109677996</c:v>
+                  <c:v>-0.28105350702062298</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.57426524365272202</c:v>
+                  <c:v>-1.5826812780922901</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3778914558462301</c:v>
+                  <c:v>0.66054198541221498</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.1483674482470501</c:v>
+                  <c:v>-2.3306321077801</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.08366648160984</c:v>
+                  <c:v>1.4302749543901301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,7 +1381,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ARTA-Zahlen JARTA</c:v>
+                  <c:v> JARTA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5533,8 +5533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F8989A-FDDF-4EC3-BE81-6E53CB1D42CD}">
   <dimension ref="A2:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5583,16 +5583,16 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
         <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-1.5963383080587601</v>
+        <v>1.34411443019038</v>
       </c>
       <c r="I9">
         <v>-1.274920123</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-0.79879739500000002</v>
+        <v>-0.80405275989693203</v>
       </c>
       <c r="B10">
         <v>-0.40025780500000002</v>
@@ -5635,7 +5635,7 @@
         <v>-0.40025780500000002</v>
       </c>
       <c r="H10">
-        <v>1.4484814511758299</v>
+        <v>-0.69573764348216804</v>
       </c>
       <c r="I10">
         <v>0.11789767800000001</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.82050574300000001</v>
+        <v>0.81812136653185996</v>
       </c>
       <c r="B11">
         <v>0.49870862100000002</v>
@@ -5661,7 +5661,7 @@
         <v>0.33850230999999997</v>
       </c>
       <c r="H11">
-        <v>-3.30622593747928</v>
+        <v>1.2873535501291</v>
       </c>
       <c r="I11">
         <v>-1.1966895500000001</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-0.72478170200000003</v>
+        <v>-0.73218482002427498</v>
       </c>
       <c r="B12">
         <v>-0.28262843900000001</v>
@@ -5687,7 +5687,7 @@
         <v>5.9262268E-2</v>
       </c>
       <c r="H12">
-        <v>2.1550079818352499</v>
+        <v>-0.54438562042206495</v>
       </c>
       <c r="I12">
         <v>-0.40859586199999998</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.69973032800000001</v>
+        <v>0.70091323849337395</v>
       </c>
       <c r="B13">
         <v>0.27113624600000003</v>
@@ -5713,7 +5713,7 @@
         <v>1.4641364E-2</v>
       </c>
       <c r="H13">
-        <v>-3.1289229917325501</v>
+        <v>1.00976439655422</v>
       </c>
       <c r="I13">
         <v>-0.73773440899999998</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-0.64049904499999999</v>
+        <v>-0.64532439944367803</v>
       </c>
       <c r="B14">
         <v>-0.175862514</v>
@@ -5739,7 +5739,7 @@
         <v>5.2577819999999999E-3</v>
       </c>
       <c r="H14">
-        <v>2.5999714627657702</v>
+        <v>-0.35338626239055099</v>
       </c>
       <c r="I14">
         <v>0.82645874900000005</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.60583042899999995</v>
+        <v>0.59655251558270495</v>
       </c>
       <c r="B15">
         <v>0.15786850699999999</v>
@@ -5765,7 +5765,7 @@
         <v>8.2188769999999994E-3</v>
       </c>
       <c r="H15">
-        <v>-1.5574452728143899</v>
+        <v>0.47367692610784401</v>
       </c>
       <c r="I15">
         <v>-0.40207757500000002</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-0.55684412800000005</v>
+        <v>-0.55354824913857803</v>
       </c>
       <c r="B16">
         <v>-0.10079917400000001</v>
@@ -5791,7 +5791,7 @@
         <v>1.2081491999999999E-2</v>
       </c>
       <c r="H16">
-        <v>9.1782555190403903E-2</v>
+        <v>-0.28693859969469099</v>
       </c>
       <c r="I16">
         <v>0.56501684200000002</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.52421377700000005</v>
+        <v>0.50361549607471301</v>
       </c>
       <c r="B17">
         <v>8.1470363000000004E-2</v>
@@ -5817,7 +5817,7 @@
         <v>-4.1263589999999996E-3</v>
       </c>
       <c r="H17">
-        <v>-0.50925699525906098</v>
+        <v>-0.194185409111127</v>
       </c>
       <c r="I17">
         <v>-0.94124792099999999</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-0.48741896299999998</v>
+        <v>-0.49015219676464</v>
       </c>
       <c r="B18">
         <v>-5.5429320999999997E-2</v>
@@ -5843,7 +5843,7 @@
         <v>-2.5622660000000001E-3</v>
       </c>
       <c r="H18">
-        <v>2.3326017154874199</v>
+        <v>3.5910998530211201E-2</v>
       </c>
       <c r="I18">
         <v>0.42038758700000001</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.45369226499999998</v>
+        <v>0.44099517888782003</v>
       </c>
       <c r="B19">
         <v>5.1220163999999999E-2</v>
@@ -5869,7 +5869,7 @@
         <v>9.3679969999999994E-3</v>
       </c>
       <c r="H19">
-        <v>-1.0493759773906499</v>
+        <v>0.28379225357596899</v>
       </c>
       <c r="I19">
         <v>0.288798848</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H20">
-        <v>1.6378837247479201</v>
+        <v>2.5896501250334101</v>
       </c>
       <c r="I20">
         <v>0.133083323</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H21">
-        <v>-1.04373065811646</v>
+        <v>-0.92823247990393198</v>
       </c>
       <c r="I21">
         <v>0.171571482</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H22">
-        <v>2.4113570737736501</v>
+        <v>0.82035845791610196</v>
       </c>
       <c r="I22">
         <v>0.80645216500000005</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H23">
-        <v>-0.87015809566787194</v>
+        <v>-1.479806503139</v>
       </c>
       <c r="I23">
         <v>0.86633413800000003</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H24">
-        <v>0.51686623426862299</v>
+        <v>0.79766933984770005</v>
       </c>
       <c r="I24">
         <v>0.18245713899999999</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H25">
-        <v>-0.90772281929403997</v>
+        <v>-0.82329098356178898</v>
       </c>
       <c r="I25">
         <v>-0.12607759199999999</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H26">
-        <v>1.32428890270531</v>
+        <v>1.76392853544121</v>
       </c>
       <c r="I26">
         <v>-0.655444429</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H27">
-        <v>-1.6568251855998299</v>
+        <v>-1.9101212411211701</v>
       </c>
       <c r="I27">
         <v>0.69493829699999998</v>
@@ -5996,7 +5996,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E28" s="1"/>
       <c r="H28">
-        <v>0.123582682285255</v>
+        <v>-0.59620909541591005</v>
       </c>
       <c r="I28">
         <v>-0.68692414000000002</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H29">
-        <v>-0.84908092347191</v>
+        <v>-0.31320721055409301</v>
       </c>
       <c r="I29">
         <v>-0.53678160500000005</v>
@@ -6025,7 +6025,7 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E30" s="1"/>
       <c r="H30">
-        <v>0.44582259939588698</v>
+        <v>-1.38514460152743</v>
       </c>
       <c r="I30">
         <v>-0.25939520799999999</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H31">
-        <v>0.51822669108114505</v>
+        <v>0.42328659470073798</v>
       </c>
       <c r="I31">
         <v>-0.212313482</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H32">
-        <v>-0.96639922258347799</v>
+        <v>0.76027687271338595</v>
       </c>
       <c r="I32">
         <v>-0.111155005</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H33">
-        <v>-0.48742428944131</v>
+        <v>1.42655078761202</v>
       </c>
       <c r="I33">
         <v>-0.13852035500000001</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H34">
-        <v>0.230248796302158</v>
+        <v>-1.27613682341899</v>
       </c>
       <c r="I34">
         <v>-1.2790014489999999</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H35">
-        <v>0.69108014969564502</v>
+        <v>1.14943436662187</v>
       </c>
       <c r="I35">
         <v>1.1426580930000001</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H36">
-        <v>0.81298599071942301</v>
+        <v>-0.64964759124169102</v>
       </c>
       <c r="I36">
         <v>-0.47489803899999999</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H37">
-        <v>0.925758166340791</v>
+        <v>0.81030425275732698</v>
       </c>
       <c r="I37">
         <v>-0.971739503</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H38">
-        <v>1.2240267484640399</v>
+        <v>-0.711906013658127</v>
       </c>
       <c r="I38">
         <v>-1.1056026370000001</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H39">
-        <v>0.487782617561625</v>
+        <v>1.60617931313497</v>
       </c>
       <c r="I39">
         <v>1.24611487</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H40">
-        <v>-0.14242186039553001</v>
+        <v>-0.22171661131501599</v>
       </c>
       <c r="I40">
         <v>-0.636722648</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H41">
-        <v>0.49680488484584101</v>
+        <v>0.78393985547593803</v>
       </c>
       <c r="I41">
         <v>1.8465713690000001</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H42">
-        <v>-8.0583462385119695E-2</v>
+        <v>0.21344192391987299</v>
       </c>
       <c r="I42">
         <v>-1.6911542690000001</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H43">
-        <v>3.3680983436600198E-2</v>
+        <v>0.85164247032894802</v>
       </c>
       <c r="I43">
         <v>1.318528119</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="44" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H44">
-        <v>-0.65417990025954698</v>
+        <v>0.99624414217267998</v>
       </c>
       <c r="I44">
         <v>-0.29561134300000003</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H45">
-        <v>-0.983580534991078</v>
+        <v>0.39365964661248898</v>
       </c>
       <c r="I45">
         <v>1.100931267</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="46" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H46">
-        <v>-0.56554598519382104</v>
+        <v>-0.24805032308209701</v>
       </c>
       <c r="I46">
         <v>-0.51299335999999995</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="47" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H47">
-        <v>0.13175598633335101</v>
+        <v>-0.31975724232512598</v>
       </c>
       <c r="I47">
         <v>0.85314663000000002</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="48" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H48">
-        <v>0.473391541052197</v>
+        <v>-3.7971700480985499E-2</v>
       </c>
       <c r="I48">
         <v>-1.518920515</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H49">
-        <v>-0.22317601688414301</v>
+        <v>-0.60064227253510605</v>
       </c>
       <c r="I49">
         <v>0.35371246699999997</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H50">
-        <v>1.0813330821484299</v>
+        <v>0.34722303331121801</v>
       </c>
       <c r="I50">
         <v>-0.206163981</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H51">
-        <v>-0.72605891652248999</v>
+        <v>0.475054944557397</v>
       </c>
       <c r="I51">
         <v>0.71592020099999998</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H52">
-        <v>-0.33350041679081099</v>
+        <v>-0.80053115809063702</v>
       </c>
       <c r="I52">
         <v>-2.2901450200000002</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="53" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H53">
-        <v>-1.5745186884918201</v>
+        <v>0.94710254150390405</v>
       </c>
       <c r="I53">
         <v>0.492292326</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="54" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H54">
-        <v>0.34065779320642298</v>
+        <v>-3.3320728415646501</v>
       </c>
       <c r="I54">
         <v>-1.499215027</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H55">
-        <v>-0.523343354442527</v>
+        <v>1.8450422781037701</v>
       </c>
       <c r="I55">
         <v>1.402475592</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="56" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H56">
-        <v>1.01834514150671</v>
+        <v>-2.2375978699339001</v>
       </c>
       <c r="I56">
         <v>-9.6742182999999995E-2</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="57" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H57">
-        <v>-0.44752352104399901</v>
+        <v>0.96788450620132704</v>
       </c>
       <c r="I57">
         <v>1.4320767219999999</v>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="58" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H58">
-        <v>-1.2375280580540999</v>
+        <v>-0.92438317222704103</v>
       </c>
       <c r="I58">
         <v>-0.183236599</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="59" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H59">
-        <v>0.79252893300122995</v>
+        <v>0.81716622265011796</v>
       </c>
       <c r="I59">
         <v>2.7403080740000001</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="60" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H60">
-        <v>-1.9183027855413599</v>
+        <v>0.86935297439233805</v>
       </c>
       <c r="I60">
         <v>-1.3575962939999999</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="61" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H61">
-        <v>-1.0291743749692199</v>
+        <v>-9.9618412961166095E-2</v>
       </c>
       <c r="I61">
         <v>0.77440982300000005</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="62" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H62">
-        <v>-0.238930973107782</v>
+        <v>1.1550544298932</v>
       </c>
       <c r="I62">
         <v>-2.6523982419999999</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="63" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H63">
-        <v>-1.3935707333870999</v>
+        <v>-0.65756194514189603</v>
       </c>
       <c r="I63">
         <v>0.49076328800000002</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="64" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H64">
-        <v>-0.69956564860434101</v>
+        <v>-0.216181384561203</v>
       </c>
       <c r="I64">
         <v>-0.358985041</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H65">
-        <v>0.59791663887240498</v>
+        <v>0.64299371598947297</v>
       </c>
       <c r="I65">
         <v>1.6428992E-2</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H66">
-        <v>-0.18039488673455001</v>
+        <v>-3.3716872747237801E-2</v>
       </c>
       <c r="I66">
         <v>0.133080436</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H67">
-        <v>-2.1038393320336599</v>
+        <v>-0.49670198380555303</v>
       </c>
       <c r="I67">
         <v>-0.795894608</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H68">
-        <v>0.39866892305290502</v>
+        <v>0.93405873294542097</v>
       </c>
       <c r="I68">
         <v>0.24109868700000001</v>
@@ -6571,7 +6571,7 @@
     </row>
     <row r="69" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H69">
-        <v>-9.76513984000279E-2</v>
+        <v>-0.31719547207716797</v>
       </c>
       <c r="I69">
         <v>0.71294544999999998</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="70" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H70">
-        <v>5.5537113945226098E-2</v>
+        <v>-0.167471406057626</v>
       </c>
       <c r="I70">
         <v>-0.17747428100000001</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="71" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H71">
-        <v>-0.154608062531297</v>
+        <v>-0.74181561056382395</v>
       </c>
       <c r="I71">
         <v>1.9790268E-2</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="72" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H72">
-        <v>-1.6660949095858799</v>
+        <v>0.61853310604191403</v>
       </c>
       <c r="I72">
         <v>-1.0733963390000001</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="73" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H73">
-        <v>-0.91732713679992695</v>
+        <v>-2.2720768987623301</v>
       </c>
       <c r="I73">
         <v>-0.21352565500000001</v>
@@ -6641,7 +6641,7 @@
     </row>
     <row r="74" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H74">
-        <v>-0.45038242178223198</v>
+        <v>2.3296835009921799</v>
       </c>
       <c r="I74">
         <v>0.15906208899999999</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="75" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H75">
-        <v>-0.61991424001333695</v>
+        <v>-0.86351943340751602</v>
       </c>
       <c r="I75">
         <v>0.62147977899999995</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="76" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H76">
-        <v>0.22540788679639301</v>
+        <v>1.2676712741427401</v>
       </c>
       <c r="I76">
         <v>0.61641373799999999</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="77" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H77">
-        <v>-0.25831660858309102</v>
+        <v>-1.02376113179109</v>
       </c>
       <c r="I77">
         <v>3.2683698999999997E-2</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="78" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H78">
-        <v>0.334550249810805</v>
+        <v>0.306134500464396</v>
       </c>
       <c r="I78">
         <v>0.29026197599999998</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="79" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H79">
-        <v>-2.9465255234090702E-3</v>
+        <v>-1.07681710296197</v>
       </c>
       <c r="I79">
         <v>0.317171076</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="80" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H80">
-        <v>-0.85809623578518102</v>
+        <v>0.94050536479006797</v>
       </c>
       <c r="I80">
         <v>0.23736105800000001</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="81" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H81">
-        <v>1.14795165236472</v>
+        <v>-1.0447057991072499</v>
       </c>
       <c r="I81">
         <v>0.132768049</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="82" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H82">
-        <v>-1.4268467230840001</v>
+        <v>-0.49517186774794097</v>
       </c>
       <c r="I82">
         <v>1.182647834</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="83" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H83">
-        <v>1.4137235316510599</v>
+        <v>0.76499831840353505</v>
       </c>
       <c r="I83">
         <v>-0.59802665200000005</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="84" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H84">
-        <v>-1.42175275197387</v>
+        <v>0.89553321452021395</v>
       </c>
       <c r="I84">
         <v>6.1157030000000001E-2</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="85" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H85">
-        <v>1.5579031954020901E-2</v>
+        <v>-0.65674736386182397</v>
       </c>
       <c r="I85">
         <v>-0.57914875399999999</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="86" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H86">
-        <v>-0.21117032509730199</v>
+        <v>1.7441918441859601</v>
       </c>
       <c r="I86">
         <v>-6.1770249999999999E-2</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="87" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H87">
-        <v>0.70705660892916</v>
+        <v>-0.81774335733855397</v>
       </c>
       <c r="I87">
         <v>0.60244593700000004</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="88" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H88">
-        <v>-0.62512117228798902</v>
+        <v>1.9972673899067499</v>
       </c>
       <c r="I88">
         <v>0.56859849699999998</v>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="89" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H89">
-        <v>2.0142966293843001</v>
+        <v>-1.1258927124497999</v>
       </c>
       <c r="I89">
         <v>-1.3516819149999999</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="90" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H90">
-        <v>0.12122379037096601</v>
+        <v>-4.3406010192566402E-2</v>
       </c>
       <c r="I90">
         <v>-2.9654336999999999E-2</v>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="91" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H91">
-        <v>0.84429500408832803</v>
+        <v>-0.87252038796652098</v>
       </c>
       <c r="I91">
         <v>-1.560643969</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="92" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H92">
-        <v>-0.785978423543923</v>
+        <v>-0.173050536656042</v>
       </c>
       <c r="I92">
         <v>1.5287090649999999</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="93" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H93">
-        <v>0.66132375785050401</v>
+        <v>-6.2112761164742701E-2</v>
       </c>
       <c r="I93">
         <v>-1.4417382940000001</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="94" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H94">
-        <v>-0.31354401388053299</v>
+        <v>0.78647091188345897</v>
       </c>
       <c r="I94">
         <v>0.63459993400000003</v>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="95" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H95">
-        <v>-0.48134477897157202</v>
+        <v>-0.44377896277241802</v>
       </c>
       <c r="I95">
         <v>-1.6826797760000001</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="96" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H96">
-        <v>0.39381423180485697</v>
+        <v>-0.48210423593632201</v>
       </c>
       <c r="I96">
         <v>0.70056968600000002</v>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="97" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H97">
-        <v>-0.42566797004371498</v>
+        <v>1.0652413809275401</v>
       </c>
       <c r="I97">
         <v>-1.0605126890000001</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="98" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H98">
-        <v>-0.185903822917733</v>
+        <v>-0.43914335443994401</v>
       </c>
       <c r="I98">
         <v>1.497501776</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="99" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H99">
-        <v>0.75559436692839999</v>
+        <v>1.9335435695938501</v>
       </c>
       <c r="I99">
         <v>-4.7615330999999997E-2</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="100" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H100">
-        <v>0.85713537356773495</v>
+        <v>0.11520822233120399</v>
       </c>
       <c r="I100">
         <v>1.2067660499999999</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="101" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H101">
-        <v>0.100984277657185</v>
+        <v>0.51822433210422203</v>
       </c>
       <c r="I101">
         <v>-1.2499301789999999</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="102" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H102">
-        <v>0.33328432897353799</v>
+        <v>-0.511489189598335</v>
       </c>
       <c r="I102">
         <v>4.9685745000000003E-2</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="103" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H103">
-        <v>0.64876859852968005</v>
+        <v>1.0292888581584301</v>
       </c>
       <c r="I103">
         <v>-1.694975581</v>
@@ -7061,7 +7061,7 @@
     </row>
     <row r="104" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H104">
-        <v>0.64953113109677996</v>
+        <v>-0.28105350702062298</v>
       </c>
       <c r="I104">
         <v>0.83962958799999998</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="105" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H105">
-        <v>0.57426524365272202</v>
+        <v>-1.5826812780922901</v>
       </c>
       <c r="I105">
         <v>5.4136352999999998E-2</v>
@@ -7089,7 +7089,7 @@
     </row>
     <row r="106" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H106">
-        <v>1.3778914558462301</v>
+        <v>0.66054198541221498</v>
       </c>
       <c r="I106">
         <v>0.17908047599999999</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="107" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H107">
-        <v>-1.1483674482470501</v>
+        <v>-2.3306321077801</v>
       </c>
       <c r="I107">
         <v>0.55226890500000003</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="108" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H108">
-        <v>1.08366648160984</v>
+        <v>1.4302749543901301</v>
       </c>
       <c r="I108">
         <v>-0.40351039900000002</v>
